--- a/traces/Visualizations/methodCountWithGraph.xlsx
+++ b/traces/Visualizations/methodCountWithGraph.xlsx
@@ -15,6 +15,9 @@
     <sheet name="methodCount" sheetId="1" r:id="rId1"/>
     <sheet name="Graph" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">methodCount!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1018,6 +1021,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Method Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1085,430 +1118,430 @@
               <c:strCache>
                 <c:ptCount val="144"/>
                 <c:pt idx="0">
-                  <c:v>setDefaultPort</c:v>
+                  <c:v>group</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>getTimestamp</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>setPermission</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>parseTimestamp</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>getServerTimeZone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>readNextEntry</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>parseFTPEntry</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>matches</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>setRawListing</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>setType</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>setSize</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>setName</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>setPrecision</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>setTimestamp</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>setUser</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>setGroup</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>accept</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>setHardLinkCount</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>getListenerCount</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>getName</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>getRawListing</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>toString</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>readLine</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>__getReply</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>getCommandSupport</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>sendCommand</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>isStrictMultilineParsing</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>__lenientCheck</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>getReplyString</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>fireReplyReceived</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>getEntry</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>getCommand</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>__buildMessage</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>__send</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>fireCommandSent</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>indexOf</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>isPositiveCompletion</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>configure</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>_connectAction_</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>closeQuietly</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>isVersioning</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>__initDefaults</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>setServerTimeZoneId</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>configure</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>_connectAction_</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="42">
+                  <c:v>disconnect</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>setDefaultDateFormat</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>setRecentDateFormat</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>getControlEncoding</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>readLine</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>isStrictMultilineParsing</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>__lenientCheck</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>getReplyString</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>getCommandSupport</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>getListenerCount</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>fireReplyReceived</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>__getReply</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="46">
+                  <c:v>getRecentDateFormatStr</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>getDefaultDateFormatStr</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>lookupDateFormatSymbols</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>getServerLanguageCode</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>getShortMonthNames</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>getServerTimeZoneId</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>connect</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>setServerTimeZone</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>isLenientFutureDates</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>getDefaultConfiguration</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>isPositivePreliminary</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>_connect</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>connect</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>getCommand</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>__buildMessage</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>__send</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>fireCommandSent</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>sendCommand</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>user</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>isPositiveCompletion</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>isPositiveIntermediate</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>pass</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>login</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>cwd</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>changeWorkingDirectory</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>enterLocalPassiveMode</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>setUp</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>getServerSystemKey</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>compileRegex</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>indexOf</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>getEntry</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>setDefaultDateFormat</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>setRecentDateFormat</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>getDefaultConfiguration</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>getDefaultDateFormatStr</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>setDefaultDateFormatStr</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>getRecentDateFormatStr</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>setRecentDateFormatStr</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>getServerLanguageCode</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>getShortMonthNames</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>lookupDateFormatSymbols</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>getServerTimeZoneId</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>setServerTimeZone</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>isLenientFutureDates</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>createFileEntryParser</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>__createParser</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>getListHiddenFiles</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>getListArguments</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>getRemoteAddress</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>isUseEPSVwithIPv4</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>pasv</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>_parsePassiveModeReply</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>verifyRemote</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>_openDataConnection_</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>getRemoteAddress</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>initiateListParsing</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>createFileEntryParser</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>setDefaultPort</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>_connect</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>user</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>isPositiveIntermediate</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>pass</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>login</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>enterLocalPassiveMode</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>setUp</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>tearDown</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>quit</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>logout</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>isConnected</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>getListHiddenFiles</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>getListArguments</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>isUseEPSVwithIPv4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>pasv</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>_parsePassiveModeReply</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>__createParser</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>compileRegex</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>getFiles</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>verifyRemote</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>getReply</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>completePendingCommand</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>toCharset</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>readStream</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>preParse</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>resetIterator</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>readServerList</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>getServerSystemKey</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>findByName</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>listFiles</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>getSystemType</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>getOverrideProperties</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>syst</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>cwd</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>changeWorkingDirectory</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>listNames</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>setRecentDateFormatStr</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>__parsePathname</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>getEntryParser</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>setDefaultDateFormatStr</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>getUnparseableEntries</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>toCharset</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>readNextEntry</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>readStream</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>preParse</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>resetIterator</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>readServerList</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>closeQuietly</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>getReply</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>completePendingCommand</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>initiateListParsing</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>setRawListing</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>matches</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>group</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>getServerTimeZone</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>setPrecision</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>parseTimestamp</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>setTimestamp</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>setType</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>setPermission</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>setHardLinkCount</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>setUser</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>setGroup</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>setSize</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>setName</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>parseFTPEntry</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>accept</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>getFiles</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>listFiles</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>getName</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>getTimestamp</c:v>
-                </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="103">
+                  <c:v>getNext</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>hasNext</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>splitShortMonthString</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>getDateFormatSymbols</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>testInitiateListParsing</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>testInitiateListParsingWithPathAndAutodetectionButEmpty</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>testInitiateListParsingWithPathAndIncorrectParser</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>testListNames</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>testListFiles</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>pwd</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>printWorkingDirectory</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>testPrintWorkingDirectory</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>testListFilesWithAutodection</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>testListNamesWithPathButEmpty</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>testListFilesWithIncorrectParser</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>testInitiateListParsingWithPath</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>testListNamesWithPath</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>testInitiateListParsingWithPathAndAutodetection</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>testListFilesWithPathAndAutodectionButEmpty</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>testListFilesWithPathAndAutodetection</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>setSystemType</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>setUnparseableEntries</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>createNTFTPEntryParser</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>setServerTimeZoneId</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>getSortedList</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="128">
                   <c:v>testTimeZoneFunctionality</c:v>
                 </c:pt>
-                <c:pt idx="91">
-                  <c:v>disconnect</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>tearDown</c:v>
-                </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="129">
                   <c:v>testFTPClientConfigStringStringStringStringStringString</c:v>
                 </c:pt>
-                <c:pt idx="94">
-                  <c:v>splitShortMonthString</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>getDateFormatSymbols</c:v>
-                </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="130">
                   <c:v>testLookupDateFormatSymbols</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="131">
                   <c:v>testGetDateFormatSymbols</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="132">
                   <c:v>testGetServerLanguageCode</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="133">
                   <c:v>testFTPClientConfigString</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="134">
                   <c:v>testSetShortMonthNames</c:v>
                 </c:pt>
-                <c:pt idx="101">
-                  <c:v>__parsePathname</c:v>
-                </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="135">
                   <c:v>testParseClient</c:v>
                 </c:pt>
-                <c:pt idx="103">
-                  <c:v>getEntryParser</c:v>
-                </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="136">
                   <c:v>testParserCachingWithKey</c:v>
                 </c:pt>
-                <c:pt idx="105">
-                  <c:v>setSystemType</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>getSystemType</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>getOverrideProperties</c:v>
-                </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="137">
                   <c:v>testParserCachingNullKey</c:v>
                 </c:pt>
-                <c:pt idx="109">
-                  <c:v>setUnparseableEntries</c:v>
-                </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="138">
                   <c:v>testUnparseableFiles</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="139">
                   <c:v>checkArray</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="140">
                   <c:v>testArray</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="141">
                   <c:v>suite</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>syst</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>getNext</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>getRawListing</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>toString</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>findByName</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>testInitiateListParsing</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>quit</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>logout</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>isConnected</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>hasNext</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>testInitiateListParsingWithPathAndAutodetectionButEmpty</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>testInitiateListParsingWithPathAndIncorrectParser</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>listNames</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>testListNames</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>testListFiles</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>pwd</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>printWorkingDirectory</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>testPrintWorkingDirectory</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>testListFilesWithAutodection</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>testListNamesWithPathButEmpty</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>testListFilesWithIncorrectParser</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>testInitiateListParsingWithPath</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>testListNamesWithPath</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>testInitiateListParsingWithPathAndAutodetection</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>testListFilesWithPathAndAutodectionButEmpty</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>testListFilesWithPathAndAutodetection</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>isVersioning</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>createNTFTPEntryParser</c:v>
                 </c:pt>
                 <c:pt idx="142">
                   <c:v>setConnectTimeout</c:v>
@@ -1526,430 +1559,430 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="144"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>27965</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>21056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14760</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2251</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1745</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1124</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="42">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>690</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>562</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1124</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="46">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>547</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2251</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1745</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1747</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>27965</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3126</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1640</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4925</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1640</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1641</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>14760</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1484</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1640</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1640</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1641</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1641</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1799</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1516</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>21056</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="102">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="106">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>19</c:v>
-                </c:pt>
                 <c:pt idx="107">
-                  <c:v>19</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>18</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>886</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>886</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>21</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>42</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>42</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>42</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>156</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="142">
                   <c:v>1</c:v>
@@ -1971,11 +2004,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="446489784"/>
-        <c:axId val="446498016"/>
+        <c:axId val="432337952"/>
+        <c:axId val="432339912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="446489784"/>
+        <c:axId val="432337952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2018,7 +2051,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446498016"/>
+        <c:crossAx val="432339912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2026,7 +2059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446498016"/>
+        <c:axId val="432339912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,7 +2110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446489784"/>
+        <c:crossAx val="432337952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2969,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2989,458 +3022,458 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>27965</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>132</v>
+        <v>21056</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>14760</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>177</v>
+        <v>4925</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>172</v>
+        <v>3126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>121</v>
+        <v>2251</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>690</v>
+        <v>1799</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>370</v>
+        <v>1747</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>370</v>
+        <v>1745</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>320</v>
+        <v>1641</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>562</v>
+        <v>1641</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1124</v>
+        <v>1641</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>320</v>
+        <v>1640</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>640</v>
+        <v>1640</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>83</v>
+        <v>1640</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44</v>
+        <v>1640</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>87</v>
+        <v>1516</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>242</v>
+        <v>1484</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>242</v>
+        <v>1124</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>242</v>
+        <v>903</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>242</v>
+        <v>886</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>547</v>
+        <v>886</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43</v>
+        <v>690</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>194</v>
+        <v>640</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43</v>
+        <v>562</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43</v>
+        <v>547</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43</v>
+        <v>370</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>13</v>
+        <v>370</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>38</v>
+        <v>242</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3453,490 +3486,490 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>2251</v>
+        <v>70</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>1745</v>
+        <v>43</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>1747</v>
+        <v>42</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>27965</v>
+        <v>42</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>3126</v>
+        <v>42</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>1640</v>
+        <v>40</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>4925</v>
+        <v>40</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>1640</v>
+        <v>40</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>1641</v>
+        <v>40</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>14760</v>
+        <v>40</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>1484</v>
+        <v>39</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>1640</v>
+        <v>38</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>1640</v>
+        <v>36</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>1641</v>
+        <v>35</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>1641</v>
+        <v>35</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>1799</v>
+        <v>35</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>1516</v>
+        <v>30</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>903</v>
+        <v>30</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>21056</v>
+        <v>30</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>886</v>
+        <v>3</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>886</v>
+        <v>3</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3944,183 +3977,183 @@
         <v>3</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -4140,6 +4173,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1">
+    <sortState ref="A2:B145">
+      <sortCondition descending="1" ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4149,7 +4187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
